--- a/biology/Zoologie/Eriocheir/Eriocheir.xlsx
+++ b/biology/Zoologie/Eriocheir/Eriocheir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eriocheir est un genre de crabes de la famille des Varunidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Eriocheir hepuensis Dai, 1991
 Eriocheir japonica (De Haan, 1835) synonyme Eriocheir formosa Nakagawa, 1915
@@ -544,7 +558,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De Haan, 1835 : Crustacea. Fauna Japonica sive Descriptio Animalium, Quae in Itinere per Japoniam, Jussu et Auspiciis Superiorum, qui Summum in India Batava Imperium Tenent, Suscepto, Annis 1823–1830 Collegit, Noitis, Observationibus et Adumbrationibus Illustravit. p. 1–243.</t>
         </is>
